--- a/sensitivity-analysis/tables/log-odds/binaryattitude4.xlsx
+++ b/sensitivity-analysis/tables/log-odds/binaryattitude4.xlsx
@@ -29912,13 +29912,13 @@
         <v>0.49932514734016725</v>
       </c>
       <c r="C3" s="784">
-        <v>0.64844280589218317</v>
+        <v>0.64844280589218273</v>
       </c>
       <c r="D3" s="788">
-        <v>-0.8001832750694351</v>
+        <v>-0.80018327506943421</v>
       </c>
       <c r="E3" s="792">
-        <v>1.7988335697497695</v>
+        <v>1.7988335697497686</v>
       </c>
     </row>
   </sheetData>
@@ -30229,13 +30229,13 @@
         <v>-0.78144225650618715</v>
       </c>
       <c r="C3" s="1069">
-        <v>0.505665956008441</v>
+        <v>0.50566595600844111</v>
       </c>
       <c r="D3" s="1073">
-        <v>-1.7948194777318192</v>
+        <v>-1.7948194777318194</v>
       </c>
       <c r="E3" s="1077">
-        <v>0.23193496471944486</v>
+        <v>0.23193496471944508</v>
       </c>
     </row>
   </sheetData>
@@ -30289,13 +30289,13 @@
         <v>-1.3239617330496343</v>
       </c>
       <c r="C3" s="1120">
-        <v>0.42999886068874676</v>
+        <v>0.42999886068874682</v>
       </c>
       <c r="D3" s="1123">
         <v>-2.185698706633191</v>
       </c>
       <c r="E3" s="1126">
-        <v>-0.46222475946607755</v>
+        <v>-0.46222475946607744</v>
       </c>
     </row>
     <row r="4">
@@ -30383,13 +30383,13 @@
         <v>-0.54353379251641942</v>
       </c>
       <c r="C3" s="115">
-        <v>0.44788410998353101</v>
+        <v>0.44788410998353106</v>
       </c>
       <c r="D3" s="119">
-        <v>-1.4411136066470143</v>
+        <v>-1.4411136066470145</v>
       </c>
       <c r="E3" s="123">
-        <v>0.35404602161417542</v>
+        <v>0.35404602161417553</v>
       </c>
     </row>
   </sheetData>
@@ -30460,10 +30460,10 @@
         <v>0.65642006133792585</v>
       </c>
       <c r="C4" s="1222">
-        <v>0.38928146130785252</v>
+        <v>0.38928146130785246</v>
       </c>
       <c r="D4" s="1226">
-        <v>-0.1237174204272492</v>
+        <v>-0.12371742042724909</v>
       </c>
       <c r="E4" s="1230">
         <v>1.4365575431031008</v>
@@ -30657,13 +30657,13 @@
         <v>0.42534761902160234</v>
       </c>
       <c r="C4" s="1399">
-        <v>0.46069516807754152</v>
+        <v>0.46069516807754141</v>
       </c>
       <c r="D4" s="1403">
-        <v>-0.49790612925070832</v>
+        <v>-0.4979061292507081</v>
       </c>
       <c r="E4" s="1407">
-        <v>1.348601367293913</v>
+        <v>1.3486013672939128</v>
       </c>
     </row>
   </sheetData>
@@ -30794,13 +30794,13 @@
         <v>-1.0609897715007151</v>
       </c>
       <c r="C4" s="1522">
-        <v>0.61243480528303662</v>
+        <v>0.61243480528303673</v>
       </c>
       <c r="D4" s="1526">
         <v>-2.288336548132885</v>
       </c>
       <c r="E4" s="1530">
-        <v>0.1663570051314549</v>
+        <v>0.16635700513145513</v>
       </c>
     </row>
   </sheetData>
@@ -30914,13 +30914,13 @@
         <v>0.35216854064746755</v>
       </c>
       <c r="C3" s="1630">
-        <v>0.71419395794415985</v>
+        <v>0.71419395794415996</v>
       </c>
       <c r="D3" s="1634">
-        <v>-1.0791081350271496</v>
+        <v>-1.0791081350271499</v>
       </c>
       <c r="E3" s="1638">
-        <v>1.7834452163220846</v>
+        <v>1.7834452163220849</v>
       </c>
     </row>
   </sheetData>
@@ -31094,13 +31094,13 @@
         <v>-1.3895039750806062</v>
       </c>
       <c r="C3" s="166">
-        <v>0.39473776423213575</v>
+        <v>0.3947377642321358</v>
       </c>
       <c r="D3" s="169">
         <v>-2.1805761322572366</v>
       </c>
       <c r="E3" s="172">
-        <v>-0.59843181790397604</v>
+        <v>-0.59843181790397593</v>
       </c>
     </row>
     <row r="4">
@@ -31385,10 +31385,10 @@
         <v>0.54574135880868813</v>
       </c>
       <c r="C4" s="268">
-        <v>0.36834066375260993</v>
+        <v>0.36834066375260988</v>
       </c>
       <c r="D4" s="272">
-        <v>-0.19242982685798904</v>
+        <v>-0.19242982685798893</v>
       </c>
       <c r="E4" s="276">
         <v>1.2839125444753652</v>
@@ -31565,13 +31565,13 @@
         <v>0.57332955059926272</v>
       </c>
       <c r="C3" s="427">
-        <v>0.43266433870691889</v>
+        <v>0.43266433870691867</v>
       </c>
       <c r="D3" s="430">
-        <v>-0.29374916030158371</v>
+        <v>-0.29374916030158327</v>
       </c>
       <c r="E3" s="433">
-        <v>1.4404082615001093</v>
+        <v>1.4404082615001088</v>
       </c>
     </row>
     <row r="4">
@@ -31582,10 +31582,10 @@
         <v>0.58407321655255739</v>
       </c>
       <c r="C4" s="445">
-        <v>0.4457237114649813</v>
+        <v>0.44572371146498119</v>
       </c>
       <c r="D4" s="449">
-        <v>-0.30917706219711227</v>
+        <v>-0.30917706219711205</v>
       </c>
       <c r="E4" s="453">
         <v>1.477323495302227</v>
@@ -31702,13 +31702,13 @@
         <v>-1.2639250434923068</v>
       </c>
       <c r="C3" s="550">
-        <v>0.59179493439550002</v>
+        <v>0.59179493439550024</v>
       </c>
       <c r="D3" s="553">
-        <v>-2.4499085945445476</v>
+        <v>-2.449908594544548</v>
       </c>
       <c r="E3" s="556">
-        <v>-0.077941492440066096</v>
+        <v>-0.077941492440065652</v>
       </c>
     </row>
     <row r="4">
@@ -31719,13 +31719,13 @@
         <v>-0.67822600990967952</v>
       </c>
       <c r="C4" s="568">
-        <v>0.53667340835724231</v>
+        <v>0.53667340835724242</v>
       </c>
       <c r="D4" s="572">
-        <v>-1.7537435542580133</v>
+        <v>-1.7537435542580135</v>
       </c>
       <c r="E4" s="576">
-        <v>0.39729153443865428</v>
+        <v>0.3972915344386545</v>
       </c>
     </row>
   </sheetData>

--- a/sensitivity-analysis/tables/log-odds/binaryattitude4.xlsx
+++ b/sensitivity-analysis/tables/log-odds/binaryattitude4.xlsx
@@ -29852,10 +29852,10 @@
         <v>0.76295555588695307</v>
       </c>
       <c r="C3" s="730">
-        <v>0.51442544283864422</v>
+        <v>0.51442544283864411</v>
       </c>
       <c r="D3" s="734">
-        <v>-0.26797606922503758</v>
+        <v>-0.26797606922503736</v>
       </c>
       <c r="E3" s="738">
         <v>1.7938871809989436</v>
@@ -30229,13 +30229,13 @@
         <v>-0.78144225650618715</v>
       </c>
       <c r="C3" s="1069">
-        <v>0.50566595600844111</v>
+        <v>0.505665956008441</v>
       </c>
       <c r="D3" s="1073">
-        <v>-1.7948194777318194</v>
+        <v>-1.7948194777318192</v>
       </c>
       <c r="E3" s="1077">
-        <v>0.23193496471944508</v>
+        <v>0.23193496471944486</v>
       </c>
     </row>
   </sheetData>
@@ -30289,13 +30289,13 @@
         <v>-1.3239617330496343</v>
       </c>
       <c r="C3" s="1120">
-        <v>0.42999886068874682</v>
+        <v>0.42999886068874676</v>
       </c>
       <c r="D3" s="1123">
         <v>-2.185698706633191</v>
       </c>
       <c r="E3" s="1126">
-        <v>-0.46222475946607744</v>
+        <v>-0.46222475946607755</v>
       </c>
     </row>
     <row r="4">
@@ -30383,13 +30383,13 @@
         <v>-0.54353379251641942</v>
       </c>
       <c r="C3" s="115">
-        <v>0.44788410998353106</v>
+        <v>0.44788410998353112</v>
       </c>
       <c r="D3" s="119">
         <v>-1.4411136066470145</v>
       </c>
       <c r="E3" s="123">
-        <v>0.35404602161417553</v>
+        <v>0.35404602161417564</v>
       </c>
     </row>
   </sheetData>
@@ -30460,10 +30460,10 @@
         <v>0.65642006133792585</v>
       </c>
       <c r="C4" s="1222">
-        <v>0.38928146130785246</v>
+        <v>0.38928146130785252</v>
       </c>
       <c r="D4" s="1226">
-        <v>-0.12371742042724909</v>
+        <v>-0.1237174204272492</v>
       </c>
       <c r="E4" s="1230">
         <v>1.4365575431031008</v>
@@ -30640,10 +30640,10 @@
         <v>0.5056702453829105</v>
       </c>
       <c r="C3" s="1381">
-        <v>0.40112134621869733</v>
+        <v>0.40112134621869722</v>
       </c>
       <c r="D3" s="1384">
-        <v>-0.29819489597258697</v>
+        <v>-0.29819489597258675</v>
       </c>
       <c r="E3" s="1387">
         <v>1.3095353867384079</v>
@@ -30657,13 +30657,13 @@
         <v>0.42534761902160234</v>
       </c>
       <c r="C4" s="1399">
-        <v>0.46069516807754141</v>
+        <v>0.46069516807754146</v>
       </c>
       <c r="D4" s="1403">
-        <v>-0.4979061292507081</v>
+        <v>-0.49790612925070821</v>
       </c>
       <c r="E4" s="1407">
-        <v>1.3486013672939128</v>
+        <v>1.348601367293913</v>
       </c>
     </row>
   </sheetData>
@@ -30794,13 +30794,13 @@
         <v>-1.0609897715007151</v>
       </c>
       <c r="C4" s="1522">
-        <v>0.61243480528303673</v>
+        <v>0.61243480528303662</v>
       </c>
       <c r="D4" s="1526">
         <v>-2.288336548132885</v>
       </c>
       <c r="E4" s="1530">
-        <v>0.16635700513145513</v>
+        <v>0.1663570051314549</v>
       </c>
     </row>
   </sheetData>
@@ -31094,13 +31094,13 @@
         <v>-1.3895039750806062</v>
       </c>
       <c r="C3" s="166">
-        <v>0.3947377642321358</v>
+        <v>0.39473776423213575</v>
       </c>
       <c r="D3" s="169">
         <v>-2.1805761322572366</v>
       </c>
       <c r="E3" s="172">
-        <v>-0.59843181790397593</v>
+        <v>-0.59843181790397604</v>
       </c>
     </row>
     <row r="4">
@@ -31368,13 +31368,13 @@
         <v>0.45162219731702874</v>
       </c>
       <c r="C3" s="250">
-        <v>0.52612955453151466</v>
+        <v>0.52612955453151478</v>
       </c>
       <c r="D3" s="253">
-        <v>-0.60276499177609244</v>
+        <v>-0.60276499177609266</v>
       </c>
       <c r="E3" s="256">
-        <v>1.5060093864101498</v>
+        <v>1.50600938641015</v>
       </c>
     </row>
     <row r="4">
@@ -31385,13 +31385,13 @@
         <v>0.54574135880868813</v>
       </c>
       <c r="C4" s="268">
-        <v>0.36834066375260988</v>
+        <v>0.36834066375260999</v>
       </c>
       <c r="D4" s="272">
-        <v>-0.19242982685798893</v>
+        <v>-0.19242982685798915</v>
       </c>
       <c r="E4" s="276">
-        <v>1.2839125444753652</v>
+        <v>1.2839125444753654</v>
       </c>
     </row>
   </sheetData>
@@ -31445,13 +31445,13 @@
         <v>-1.1683696560314878</v>
       </c>
       <c r="C3" s="322">
-        <v>0.50936824604123854</v>
+        <v>0.50936824604123898</v>
       </c>
       <c r="D3" s="326">
-        <v>-2.1891664322835709</v>
+        <v>-2.1891664322835718</v>
       </c>
       <c r="E3" s="330">
-        <v>-0.14757287977940448</v>
+        <v>-0.14757287977940359</v>
       </c>
     </row>
   </sheetData>
@@ -31565,10 +31565,10 @@
         <v>0.57332955059926272</v>
       </c>
       <c r="C3" s="427">
-        <v>0.43266433870691867</v>
+        <v>0.43266433870691878</v>
       </c>
       <c r="D3" s="430">
-        <v>-0.29374916030158327</v>
+        <v>-0.29374916030158349</v>
       </c>
       <c r="E3" s="433">
         <v>1.4404082615001088</v>
@@ -31702,13 +31702,13 @@
         <v>-1.2639250434923068</v>
       </c>
       <c r="C3" s="550">
-        <v>0.59179493439550024</v>
+        <v>0.59179493439549991</v>
       </c>
       <c r="D3" s="553">
-        <v>-2.449908594544548</v>
+        <v>-2.4499085945445476</v>
       </c>
       <c r="E3" s="556">
-        <v>-0.077941492440065652</v>
+        <v>-0.077941492440066318</v>
       </c>
     </row>
     <row r="4">
@@ -31719,13 +31719,13 @@
         <v>-0.67822600990967952</v>
       </c>
       <c r="C4" s="568">
-        <v>0.53667340835724242</v>
+        <v>0.53667340835724209</v>
       </c>
       <c r="D4" s="572">
-        <v>-1.7537435542580135</v>
+        <v>-1.7537435542580129</v>
       </c>
       <c r="E4" s="576">
-        <v>0.3972915344386545</v>
+        <v>0.39729153443865384</v>
       </c>
     </row>
   </sheetData>
